--- a/data/trans_orig/P14C05-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C05-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE2D2F14-B94E-486B-B754-7CCDDBCE0662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3856227-ECD4-48E5-9C5E-385FE6673130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{40F113C0-449F-4A2F-89D6-806C8E73FCFB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{60CFF436-C4FF-4BAE-BC66-9AB610C37AAF}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -83,19 +83,19 @@
     <t>80,06%</t>
   </si>
   <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
   </si>
   <si>
     <t>78,02%</t>
   </si>
   <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -107,19 +107,19 @@
     <t>12,29%</t>
   </si>
   <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
     <t>3,72%</t>
   </si>
   <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
+    <t>33,4%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -134,13 +134,13 @@
     <t>7,66%</t>
   </si>
   <si>
-    <t>24,63%</t>
+    <t>23,71%</t>
   </si>
   <si>
     <t>7,07%</t>
   </si>
   <si>
-    <t>22,43%</t>
+    <t>24,24%</t>
   </si>
   <si>
     <t>100%</t>
@@ -152,82 +152,82 @@
     <t>45,41%</t>
   </si>
   <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
   </si>
   <si>
     <t>59,44%</t>
   </si>
   <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
   </si>
   <si>
     <t>53,88%</t>
   </si>
   <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
   </si>
   <si>
     <t>37,19%</t>
   </si>
   <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
   </si>
   <si>
     <t>26,11%</t>
   </si>
   <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
   </si>
   <si>
     <t>30,5%</t>
   </si>
   <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
   </si>
   <si>
     <t>17,4%</t>
   </si>
   <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
   </si>
   <si>
     <t>14,46%</t>
   </si>
   <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
   </si>
   <si>
     <t>15,62%</t>
   </si>
   <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -266,55 +266,55 @@
     <t>49,04%</t>
   </si>
   <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
   </si>
   <si>
     <t>69,28%</t>
   </si>
   <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
   </si>
   <si>
     <t>63,16%</t>
   </si>
   <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
   </si>
   <si>
     <t>38,36%</t>
   </si>
   <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
   </si>
   <si>
     <t>20,26%</t>
   </si>
   <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
   </si>
   <si>
     <t>25,73%</t>
   </si>
   <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
   </si>
   <si>
     <t>12,6%</t>
@@ -323,25 +323,25 @@
     <t>3,75%</t>
   </si>
   <si>
-    <t>33,1%</t>
+    <t>34,2%</t>
   </si>
   <si>
     <t>10,46%</t>
   </si>
   <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
   </si>
   <si>
     <t>11,11%</t>
   </si>
   <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -756,7 +756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B2D76E1-F774-407F-B04E-35C56AF8D47D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83463DC-48BE-4FD1-A457-FBC9D8DF042E}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14C05-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C05-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3856227-ECD4-48E5-9C5E-385FE6673130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7119928-A82D-440F-BEC8-DDB4CA19179E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{60CFF436-C4FF-4BAE-BC66-9AB610C37AAF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{555AC301-D160-4B1C-96D0-F08233AB8739}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="103">
-  <si>
-    <t>Población según el tiempo de diagnóstico de la colitis en 2015 (Tasa respuesta: 1,11%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="101">
+  <si>
+    <t>Población según el tiempo de diagnóstico de la colitis en 2016 (Tasa respuesta: 1,11%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -83,19 +83,19 @@
     <t>80,06%</t>
   </si>
   <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
   </si>
   <si>
     <t>78,02%</t>
   </si>
   <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -107,19 +107,19 @@
     <t>12,29%</t>
   </si>
   <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
   </si>
   <si>
     <t>14,91%</t>
   </si>
   <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -134,13 +134,13 @@
     <t>7,66%</t>
   </si>
   <si>
-    <t>23,71%</t>
+    <t>25,2%</t>
   </si>
   <si>
     <t>7,07%</t>
   </si>
   <si>
-    <t>24,24%</t>
+    <t>22,76%</t>
   </si>
   <si>
     <t>100%</t>
@@ -152,82 +152,82 @@
     <t>45,41%</t>
   </si>
   <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
   </si>
   <si>
     <t>59,44%</t>
   </si>
   <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
   </si>
   <si>
     <t>53,88%</t>
   </si>
   <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
   </si>
   <si>
     <t>37,19%</t>
   </si>
   <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
   </si>
   <si>
     <t>26,11%</t>
   </si>
   <si>
-    <t>10,88%</t>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
   </si>
   <si>
     <t>46,49%</t>
   </si>
   <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
     <t>17,4%</t>
   </si>
   <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
   </si>
   <si>
     <t>14,46%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
   </si>
   <si>
     <t>15,62%</t>
   </si>
   <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -242,7 +242,7 @@
     <t>62,34%</t>
   </si>
   <si>
-    <t>12,7%</t>
+    <t>18,66%</t>
   </si>
   <si>
     <t>38,95%</t>
@@ -254,7 +254,7 @@
     <t>37,66%</t>
   </si>
   <si>
-    <t>87,3%</t>
+    <t>81,34%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -266,64 +266,58 @@
     <t>49,04%</t>
   </si>
   <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
   </si>
   <si>
     <t>69,28%</t>
   </si>
   <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
   </si>
   <si>
     <t>63,16%</t>
   </si>
   <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
   </si>
   <si>
     <t>38,36%</t>
   </si>
   <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
+    <t>19,26%</t>
   </si>
   <si>
     <t>20,26%</t>
   </si>
   <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
   </si>
   <si>
     <t>25,73%</t>
   </si>
   <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
   </si>
   <si>
     <t>12,6%</t>
   </si>
   <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
+    <t>31,65%</t>
   </si>
   <si>
     <t>10,46%</t>
@@ -332,16 +326,16 @@
     <t>3,62%</t>
   </si>
   <si>
-    <t>20,82%</t>
+    <t>20,95%</t>
   </si>
   <si>
     <t>11,11%</t>
   </si>
   <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -756,7 +750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83463DC-48BE-4FD1-A457-FBC9D8DF042E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B34F20-D3C5-466E-B39F-9575F613F0C0}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1555,7 +1549,7 @@
         <v>85</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -1564,13 +1558,13 @@
         <v>11291</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -1579,13 +1573,13 @@
         <v>20550</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1600,13 +1594,13 @@
         <v>3042</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -1615,13 +1609,13 @@
         <v>5830</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M18" s="7">
         <v>9</v>
@@ -1630,13 +1624,13 @@
         <v>8872</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1692,7 +1686,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
